--- a/notes/android_nci_notes.xlsx
+++ b/notes/android_nci_notes.xlsx
@@ -5,17 +5,23 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\nfc\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\github\nfc\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8532" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2604" windowWidth="23040" windowHeight="8532" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="NCI" sheetId="3" r:id="rId3"/>
-    <sheet name="Java Layer" sheetId="4" r:id="rId4"/>
+    <sheet name="tNFC_CB" sheetId="11" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="LLCP" sheetId="10" r:id="rId3"/>
+    <sheet name="hal-tml" sheetId="6" r:id="rId4"/>
+    <sheet name="Threads" sheetId="7" r:id="rId5"/>
+    <sheet name="fw dnld" sheetId="5" r:id="rId6"/>
+    <sheet name="callbacks" sheetId="2" r:id="rId7"/>
+    <sheet name="NCI" sheetId="3" r:id="rId8"/>
+    <sheet name="Java Layer" sheetId="4" r:id="rId9"/>
+    <sheet name="setDefaultRoute" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -114,6 +120,40 @@
     <author>nxp97381</author>
   </authors>
   <commentList>
+    <comment ref="E7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>nxp97381:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+load fw image from .so file</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>nxp97381</author>
+  </authors>
+  <commentList>
     <comment ref="I10" authorId="0" shapeId="0">
       <text>
         <r>
@@ -170,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="336">
   <si>
     <t>NativeNfcManager.cpp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -409,12 +449,1123 @@
     <t>nfc_ncif_process_event</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>phNxpNciHal_open</t>
+  </si>
+  <si>
+    <t>phNxpNciHal.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phNxpNciHal_fw_download</t>
+  </si>
+  <si>
+    <t>status = phTmlNfc_IoCtl(phTmlNfc_e_EnableDownloadMode);</t>
+  </si>
+  <si>
+    <t>phDnldNfc_SetHwDevHandle()</t>
+  </si>
+  <si>
+    <t>phDnldNfc_ReSetHwDevHandle</t>
+  </si>
+  <si>
+    <t>typedef struct</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    bool_t                       bDnldEepromWrite;  /* Flag to indicate eeprom write request*/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    bool_t                       bSkipSeq;       /* Flag to indicate FW download sequence to be skipped or not */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    bool_t                       bSkipReset;     /* Flag to indicate Reset cmd to be skipped or not in FW download sequence */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    bool_t                       bSkipForce;     /* Flag to indicate Force cmd to be skipped or not in FW recovery sequence */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    bool_t                       bPrevSessnOpen; /* Flag to indicate previous download session is open or not */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    bool_t                       bLibNfcCtxtMem; /* flag to indicate if mem was allocated for gpphLibNfc_Context */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    bool_t                       bDnldInitiated; /* Flag to indicate if fw upgrade was initiated */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    bool_t                       bSendNciCmd;    /* Flag to indicate if NCI cmd to be sent or not,after PKU */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    uint8_t                      bChipVer;       /* holds the hw chip version */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    bool_t                       bDnldRecovery;  /* Flag to indicate if dnld recovery sequence needs to be triggered */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    bool_t                       bForceDnld;     /* Flag to indicate if forced download option is enabled */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    bool_t                       bRetryDnld;     /* Flag to indicate retry download after successful recovery complete */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    uint8_t                      bDnldAttempts;  /* Holds the count of no. of dnld attempts made.max 3 */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    uint16_t                     IoctlCode;      /* Ioctl code*/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    bool_t                       bDnldAttemptFailed;  /* Flag to indicate last download attempt failed */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    NFCSTATUS                    bLastStatus;    /* Holds the actual download write attempt status */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    phLibNfc_EELogParams_t       tLogParams;     /* holds the params that could be logged to reserved EE address */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    uint8_t                      bClkSrcVal;     /* Holds the System clock source read from config file */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    uint8_t                      bClkFreqVal;    /* Holds the System clock frequency read from config file */</t>
+  </si>
+  <si>
+    <t>} phNxpNciHal_fw_Ioctl_Cntx_t;</t>
+  </si>
+  <si>
+    <t>phNxpNciHal_Dnld.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phDnldNfc_InitImgInfo</t>
+  </si>
+  <si>
+    <t>phDnldNfc.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phDnldNfc_LoadFW</t>
+  </si>
+  <si>
+    <t>gphDnldNfc_DlSeq</t>
+  </si>
+  <si>
+    <t>gphDnldNfc_DlSeqSz</t>
+  </si>
+  <si>
+    <t>phNxpNciHal_fw_download_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phNxpNciHal_fw_seq_handler</t>
+  </si>
+  <si>
+    <t>phTmlNfc_TmlThread</t>
+  </si>
+  <si>
+    <t>phTmlNfc_Init</t>
+  </si>
+  <si>
+    <t>phTmlNfc_TmlWriterThread</t>
+  </si>
+  <si>
+    <t>phTmlNfc_DeferredCall</t>
+  </si>
+  <si>
+    <t>// Posting read message…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phDal4Nfc_msgsnd</t>
+  </si>
+  <si>
+    <t>phDal4Nfc_msgrcv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phNxpNciHal_client_thread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GKI_create_task</t>
+  </si>
+  <si>
+    <t>gki_task_entry</t>
+  </si>
+  <si>
+    <t>Creator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thread Func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_pthread_info-&gt;task_entry</t>
+  </si>
+  <si>
+    <t>NfcAdaptation::Thread</t>
+  </si>
+  <si>
+    <t>nfc_task</t>
+  </si>
+  <si>
+    <t>NFCA_TASK</t>
+  </si>
+  <si>
+    <t>GKI_run</t>
+  </si>
+  <si>
+    <t>timer_thread</t>
+  </si>
+  <si>
+    <t>GKI_timer_update</t>
+  </si>
+  <si>
+    <t>switchP2PToT3TRead</t>
+  </si>
+  <si>
+    <t>pollT3TThread</t>
+  </si>
+  <si>
+    <t>cleanup_timer</t>
+  </si>
+  <si>
+    <t>enableThread</t>
+  </si>
+  <si>
+    <t>enableAGCThread</t>
+  </si>
+  <si>
+    <t>nfcManagerEnableAGCDebug</t>
+  </si>
+  <si>
+    <t>phMwIf_Init</t>
+  </si>
+  <si>
+    <t>phMwIfi_IntegrationThread</t>
+  </si>
+  <si>
+    <t>phNxpEseP61_client_thread</t>
+  </si>
+  <si>
+    <t>phNxpNciHal_client_thread</t>
+  </si>
+  <si>
+    <t>phNxpEseP61_openPrioSession</t>
+  </si>
+  <si>
+    <t>phNxpNciHal_stop_polling_loop</t>
+  </si>
+  <si>
+    <t>tmp_thread</t>
+  </si>
+  <si>
+    <t>phNxpNciHal_resume_polling_loop</t>
+  </si>
+  <si>
+    <t>phNxpNciHal_start_polling_loop</t>
+  </si>
+  <si>
+    <t>phNxpNciHal_select_RF_Discovery</t>
+  </si>
+  <si>
+    <t>phNxpNciHal_TestMode_open</t>
+  </si>
+  <si>
+    <t>phNxpNciHal_test_rx_thread</t>
+  </si>
+  <si>
+    <t>phTmlEse_StartThread</t>
+  </si>
+  <si>
+    <t>phTmlNfc_StartThread</t>
+  </si>
+  <si>
+    <t>nfcID2_req_handler_async</t>
+  </si>
+  <si>
+    <t>NfcID2_req_timoutHandler</t>
+  </si>
+  <si>
+    <t>NfcID2_rmv_timoutHandler</t>
+  </si>
+  <si>
+    <t>nfcID2_rmv_handler_async</t>
+  </si>
+  <si>
+    <t>ee_removed_disc_ntf_handler</t>
+  </si>
+  <si>
+    <t>ee_removed_ntf_handler_thread</t>
+  </si>
+  <si>
+    <t>computeDiscoveryParameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NfcService.applyRouting()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setDefaultRoute</t>
+  </si>
+  <si>
+    <t>ROUTE_LOC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROUTE_SWITCH_ON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROUTE_SWITCH_OFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    UINT32              flags;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    tNFA_CONN_CBACK     *p_conn_cback;                  /* Callback for this listen request             */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    tNFA_PROTOCOL_MASK  protocol_mask;                  /* Mask of protocols for this listen request    */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    tNFA_HANDLE         rf_disc_handle;                 /* RF Discover handle */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /* For host tag emulation (NFA_CeRegisterVirtualT4tSE and NFA_CeRegisterT4tAidOnDH) */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UINT8               t3t_nfcid2[NCI_RF_F_UID_LEN];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UINT16              t3t_system_code;                /* Type-3 system code */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UINT8               t4t_aid_handle;                 /* Type-4 aid callback handle (from CE_T4tRegisterAID) */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /* For UICC */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    tNFA_HANDLE                     ee_handle;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    tNFA_TECHNOLOGY_MASK            tech_mask;          /* listening technologies               */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    tNFA_DM_DISC_TECH_PROTO_MASK    tech_proto_mask;    /* listening technologies and protocols */</t>
+  </si>
+  <si>
+    <t>} tNFA_CE_LISTEN_INFO;</t>
+  </si>
+  <si>
+    <t>nfa_ce_api_reg_listen</t>
+  </si>
+  <si>
+    <t>NFA_CeRegisterAidOnDH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BT_HDR                  hdr;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    tNFA_DM_CBACK           *p_dm_cback;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    tNFA_CONN_CBACK         *p_conn_cback;</t>
+  </si>
+  <si>
+    <t>} tNFA_DM_API_ENABLE;</t>
+  </si>
+  <si>
+    <r>
+      <t>NFA_Enable (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nfaDeviceManagementCallback</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nfaConnectionCallback</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nfa_dm_cb.p_dm_cback    = p_data-&gt;enable.p_dm_cback;</t>
+  </si>
+  <si>
+    <t>nfa_dm_cb.p_conn_cback  = p_data-&gt;enable.p_conn_cback;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nfa_dm_enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>NFC_Enable(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nfa_dm_nfc_response_cback</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nfc_cb.p_resp_cback = p_cback;</t>
+  </si>
+  <si>
+    <t>typedef struct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    tNFC_DISCOVER_CBACK *p_discv_cback;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    tNFC_RESPONSE_CBACK *p_resp_cback;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    tNFC_TEST_CBACK     *p_test_cback;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    tNFC_VS_CBACK       *p_vs_cb[NFC_NUM_VS_CBACKS];/* Register for vendor specific events  */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>} tNFC_CB;</t>
+  </si>
+  <si>
+    <t>/* NFA_CE control block */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    tNFA_CONN_CBACK     *p_active_conn_cback;               /* Callback of activated CE */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /* listen_info table (table of listen paramters and app callbacks) */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    tNFA_CE_LISTEN_INFO listen_info[NFA_CE_LISTEN_INFO_MAX];/* listen info table                            */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    tNFA_SYS_EVT_HDLR   *p_vs_evt_hdlr;                     /* VS event handler */</t>
+  </si>
+  <si>
+    <t>} tNFA_CE_CB;</t>
+  </si>
+  <si>
+    <t>extern tNFA_CE_CB nfa_ce_cb;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">p_cb-&gt;listen_info[NFA_CE_LISTEN_INFO_IDX_NDEF].p_conn_cback = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nfa_dm_conn_cback_event_notify</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>llcp_link_deactivate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nci_proc_core_ntf</t>
+  </si>
+  <si>
+    <t>llcp_process_timeout</t>
+  </si>
+  <si>
+    <t>/* NFC control blocks */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UINT16              flags;                      /* NFC control block flags - NFC_FL_* */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    tNFC_CONN_CB        conn_cb[NCI_MAX_CONN_CBS];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UINT8               conn_id[NFC_MAX_CONN_ID+1]; /* index: conn_id; conn_id[]: index(1 based) to conn_cb[] */</t>
+  </si>
+  <si>
+    <t>#if(NFC_NXP_NOT_OPEN_INCLUDED == TRUE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UINT8               nxpCbflag;</t>
+  </si>
+  <si>
+    <t>#endif</t>
+  </si>
+  <si>
+    <t>#if (NFC_RW_ONLY == FALSE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /* NFCC information at init rsp */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UINT32              nci_features;               /* the NCI features supported by NFCC */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UINT16              max_ce_table;               /* the max routing table size       */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UINT8               max_conn;                   /* the num of connections supported by NFCC */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UINT8               nci_ctrl_size;              /* Max Control Packet Payload Size */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    const tNCI_DISCOVER_MAPS  *p_disc_maps;         /* NCI RF Discovery interface mapping */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UINT8               vs_interface[NFC_NFCC_MAX_NUM_VS_INTERFACE];  /* the NCI VS interfaces of NFCC    */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UINT16              nci_interfaces;             /* the NCI interfaces of NFCC       */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UINT8               num_disc_maps;              /* number of RF Discovery interface mappings */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    void               *p_disc_pending;            /* the parameters associated with pending NFC_DiscoveryStart */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    void               *p_last_disc;            /* the parameters associated with pending NFC_DiscoveryStart */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /* NFC_TASK timer management */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TIMER_LIST_Q        timer_queue;                /* 1-sec timer event queue */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TIMER_LIST_Q        quick_timer_queue;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TIMER_LIST_ENT      deactivate_timer;           /* Timer to wait for deactivation */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    tNFC_STATE          nfc_state;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BOOLEAN             reassembly;         /* Reassemble fragmented data pkt */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    tNFC_STATE          old_nfc_state;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UINT8               trace_level;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UINT8               last_hdr[NFC_SAVED_HDR_SIZE];/* part of last NCI command header */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UINT8               last_cmd[NFC_SAVED_CMD_SIZE];/* part of last NCI command payload */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UINT8              *last_cmd_buf;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UINT8               cmd_size;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    void                *p_vsc_cback;       /* the callback function for last VSC command */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BUFFER_Q            nci_cmd_xmit_q;     /* NCI command queue */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BUFFER_Q            nci_cmd_recov_xmit_q;     /* NCI recovery command queue */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TIMER_LIST_ENT      listen_activation_timer_list;           /* Timer for monitoring listen activation */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TIMER_LIST_ENT      nci_wait_rsp_timer; /* Timer for waiting for nci command response */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TIMER_LIST_ENT      nci_wait_data_ntf_timer; /* Timer for waiting for core credit ntf*/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UINT16              nci_wait_rsp_tout;  /* NCI command timeout (in ms) */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UINT8               nci_wait_rsp;       /* layer_specific for last NCI message */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UINT8               nci_cmd_window;     /* Number of commands the controller can accecpt without waiting for response */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BT_HDR              *p_nci_init_rsp;    /* holding INIT_RSP until receiving HAL_NFC_POST_INIT_CPLT_EVT */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    tHAL_NFC_ENTRY      *p_hal;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    i2c_data            i2c_data_t;         /* holding i2c fragmentation data */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    tNFC_CONN_CBACK *p_cback;   /* the callback function to receive the data        */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BUFFER_Q    tx_q;           /* transmit queue                                   */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BUFFER_Q    rx_q;           /* receive queue                                    */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UINT8       id;             /* NFCEE ID or RF Discovery ID or NFC_TEST_ID       */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UINT8       act_protocol;   /* the active protocol on this logical connection   */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UINT8       conn_id;        /* the connection id assigned by NFCC for this conn */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UINT8       buff_size;      /* the max buffer size for this connection.     .   */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UINT8       num_buff;       /* num of buffers left to send on this connection   */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UINT8       init_credits;   /* initial num of buffer credits                    */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UINT8       act_interface;  /* the active interface on this logical i=connetion  */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UINT8       sel_res;        /* the sel_res of the activated rf interface connection */</t>
+  </si>
+  <si>
+    <t>} tNFC_CONN_CB;</t>
+  </si>
+  <si>
+    <t>HalDeviceContextDataCallback</t>
+  </si>
+  <si>
+    <t>typedef struct nfc_nci_device {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    struct hw_device_t common;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    int (*core_initialized)(const struct nfc_nci_device *p_dev, uint8_t* p_core_init_rsp_params);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    int (*pre_discover)(const struct nfc_nci_device *p_dev);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    int (*close)(const struct nfc_nci_device *p_dev);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    int (*control_granted)(const struct nfc_nci_device *p_dev);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    int (*power_cycle)(const struct nfc_nci_device *p_dev);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    int (*ioctl)(const struct nfc_nci_device *p_dev, long arg, void *p_data);</t>
+  </si>
+  <si>
+    <t>} nfc_nci_device_t;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    int (*open)(const struct nfc_nci_device *p_dev, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nfc_stack_callback_t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> *p_cback,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nfc_stack_data_callback_t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> *p_data_cback);</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HalDeviceContextCallback</t>
+  </si>
+  <si>
+    <t>hal_open</t>
+  </si>
+  <si>
+    <t>hal_write</t>
+  </si>
+  <si>
+    <t>hal_ioctl</t>
+  </si>
+  <si>
+    <t>hal_core_initialized</t>
+  </si>
+  <si>
+    <t>hal_pre_discover</t>
+  </si>
+  <si>
+    <t>hal_close</t>
+  </si>
+  <si>
+    <t>hal_control_granted</t>
+  </si>
+  <si>
+    <t>hal_power_cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    int (*write)(const struct nfc_nci_device *p_dev, uint16_t data_len, const uint8_t *p_data);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nxpncihal_ctrl.p_nfc_stack_cback = p_cback;</t>
+  </si>
+  <si>
+    <t>nxpncihal_ctrl.p_nfc_stack_data_cback = p_data_cback;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>called in phNxpNciHal_client_thread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nfc_main_hal_cback</t>
+  </si>
+  <si>
+    <t>nfc_main_hal_data_cback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    tHAL_API_INITIALIZE *initialize;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    tHAL_API_TERMINATE *terminate;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    tHAL_API_OPEN *open;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    tHAL_API_CLOSE *close;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    tHAL_API_CORE_INITIALIZED *core_initialized;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    tHAL_API_WRITE *write;</t>
+  </si>
+  <si>
+    <t>#if((ESE_NFC_POWER_MANAGEMENT == TRUE)&amp;&amp;(NFC_NXP_NOT_OPEN_INCLUDED == TRUE))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    tHAL_API_IOCTL *ioctl;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    tHAL_API_PREDISCOVER *prediscover;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    tHAL_API_CONTROL_GRANTED *control_granted;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    tHAL_API_POWER_CYCLE *power_cycle;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    tHAL_API_GET_MAX_NFCEE *get_max_ee;</t>
+  </si>
+  <si>
+    <t>} tHAL_NFC_ENTRY;</t>
+  </si>
+  <si>
+    <t>tNFC_STATUS NFC_Enable (tNFC_RESPONSE_CBACK *p_cback)</t>
+  </si>
+  <si>
+    <t>nfc_cb.p_hal            = p_hal_entry_tbl;</t>
+  </si>
+  <si>
+    <t>NFA_Init (mHalEntryFuncs)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFC_Init (mHalEntryFuncs)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>nfc_cb.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p_hal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt;open (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nfc_main_hal_cback, nfc_main_hal_data_cback</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HalInitialize</t>
+  </si>
+  <si>
+    <t>HalTerminate</t>
+  </si>
+  <si>
+    <t>HalOpen</t>
+  </si>
+  <si>
+    <t>HalClose</t>
+  </si>
+  <si>
+    <t>HalCoreInitialized</t>
+  </si>
+  <si>
+    <t>HalWrite</t>
+  </si>
+  <si>
+    <t>HalIoctl</t>
+  </si>
+  <si>
+    <t>HalPrediscover</t>
+  </si>
+  <si>
+    <t>HalControlGranted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HalPowerCycle</t>
+  </si>
+  <si>
+    <t>HalGetMaxNfcee</t>
+  </si>
+  <si>
+    <t>HalDeviceContextDataCallback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>==</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hal_open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>llcp_link_connection_cback</t>
+  </si>
+  <si>
+    <r>
+      <t>NFC_SetStaticRfCback (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>llcp_link_connection_cback</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Link Activation Process</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Register Listener</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nfa_p2p_discovery_cback</t>
+  </si>
+  <si>
+    <t>nfa_dm_set_p2p_listen_tech</t>
+  </si>
+  <si>
+    <t>case NFA_DM_API_SET_P2P_LISTEN_TECH_EVT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nfa_p2p_update_listen_tech</t>
+  </si>
+  <si>
+    <t>nfa_p2p_enable_listening</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                NFA_DM_DISC_HOST_ID_DH,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            nfa_p2p_cb.dm_disc_handle = nfa_dm_add_rf_discover (p2p_listen_mask,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nfa_p2p_discovery_cback);</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFC-DEP RF INTF ACTIVATED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nfa_p2p_activate_llcp (p_data);</t>
+  </si>
+  <si>
+    <t>LLCP_ActivateLink</t>
+  </si>
+  <si>
+    <t>llcp_link_activate</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NFC_SetStaticRfCback </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(llcp_link_connection_cback</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>llcp_link_deactivate (LLCP_LINK_RF_LINK_LOSS_ERR);</t>
+  </si>
+  <si>
+    <t>llcp_link_connection_cback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>llcp_link_send_SYMM</t>
+  </si>
+  <si>
+    <t>llcp_link_send_invalid_pdu</t>
+  </si>
+  <si>
+    <t>/* activation failed */</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/* link_state == LLCP_LINK_STATE_DEACTIVATED */</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>llcp_link_proc_rx_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/* process raw data */</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/* event == NFC_ERROR_CEVT */</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,8 +1603,34 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -466,8 +1643,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -503,13 +1686,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -531,8 +1794,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,6 +1851,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -551,15 +1930,314 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Elbow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3672840" y="1021080"/>
+          <a:ext cx="4876800" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Elbow Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2430780" y="11811000"/>
+          <a:ext cx="6111240" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Curved Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2461260" y="1379220"/>
+          <a:ext cx="2346960" cy="556260"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Elbow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2091690" y="567690"/>
+          <a:ext cx="640080" cy="464820"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Elbow Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3044190" y="750570"/>
+          <a:ext cx="510540" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1127760</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Curved Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11010900" y="8503920"/>
+          <a:ext cx="792480" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="141414"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="F8F8F8"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -813,6 +2491,878 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:X80"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="K78" sqref="K78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="13"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="16"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>197</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="16"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="16"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>199</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="16"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>179</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="16"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>180</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="16"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>181</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="16"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>182</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="16"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>200</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="16"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>201</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="16"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>202</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="16"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O15" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="16"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>203</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="16"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>204</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="16"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>205</v>
+      </c>
+      <c r="O18" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="19"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>236</v>
+      </c>
+      <c r="O64" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="O65" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12"/>
+      <c r="S65" s="12"/>
+      <c r="T65" s="12"/>
+      <c r="U65" s="12"/>
+      <c r="V65" s="12"/>
+      <c r="W65" s="13"/>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>238</v>
+      </c>
+      <c r="O66" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P66" s="15"/>
+      <c r="Q66" s="15"/>
+      <c r="R66" s="15"/>
+      <c r="S66" s="15"/>
+      <c r="T66" s="15"/>
+      <c r="U66" s="15"/>
+      <c r="V66" s="15"/>
+      <c r="W66" s="16"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O67" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="P67" s="15"/>
+      <c r="Q67" s="15"/>
+      <c r="R67" s="15"/>
+      <c r="S67" s="15"/>
+      <c r="T67" s="15"/>
+      <c r="U67" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="V67" s="15"/>
+      <c r="W67" s="16"/>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>184</v>
+      </c>
+      <c r="O68" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="P68" s="15"/>
+      <c r="Q68" s="15"/>
+      <c r="R68" s="15"/>
+      <c r="S68" s="15"/>
+      <c r="T68" s="15"/>
+      <c r="U68" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="V68" s="15"/>
+      <c r="W68" s="16"/>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O69" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="15"/>
+      <c r="R69" s="15"/>
+      <c r="S69" s="15"/>
+      <c r="T69" s="15"/>
+      <c r="U69" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="V69" s="15"/>
+      <c r="W69" s="16"/>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O70" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="P70" s="15"/>
+      <c r="Q70" s="15"/>
+      <c r="R70" s="15"/>
+      <c r="S70" s="15"/>
+      <c r="T70" s="15"/>
+      <c r="U70" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="V70" s="15"/>
+      <c r="W70" s="16"/>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O71" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="P71" s="15"/>
+      <c r="Q71" s="15"/>
+      <c r="R71" s="15"/>
+      <c r="S71" s="15"/>
+      <c r="T71" s="15"/>
+      <c r="U71" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="V71" s="15"/>
+      <c r="W71" s="16"/>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O72" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="P72" s="15"/>
+      <c r="Q72" s="15"/>
+      <c r="R72" s="15"/>
+      <c r="S72" s="15"/>
+      <c r="T72" s="15"/>
+      <c r="U72" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="V72" s="15"/>
+      <c r="W72" s="16"/>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O73" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15"/>
+      <c r="R73" s="15"/>
+      <c r="S73" s="15"/>
+      <c r="T73" s="15"/>
+      <c r="U73" s="22"/>
+      <c r="V73" s="15"/>
+      <c r="W73" s="16"/>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O74" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="P74" s="15"/>
+      <c r="Q74" s="15"/>
+      <c r="R74" s="15"/>
+      <c r="S74" s="15"/>
+      <c r="T74" s="15"/>
+      <c r="U74" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="V74" s="15"/>
+      <c r="W74" s="16"/>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O75" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="P75" s="15"/>
+      <c r="Q75" s="15"/>
+      <c r="R75" s="15"/>
+      <c r="S75" s="15"/>
+      <c r="T75" s="15"/>
+      <c r="U75" s="22"/>
+      <c r="V75" s="15"/>
+      <c r="W75" s="16"/>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O76" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="15"/>
+      <c r="R76" s="15"/>
+      <c r="S76" s="15"/>
+      <c r="T76" s="15"/>
+      <c r="U76" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="V76" s="15"/>
+      <c r="W76" s="16"/>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O77" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
+      <c r="R77" s="15"/>
+      <c r="S77" s="15"/>
+      <c r="T77" s="15"/>
+      <c r="U77" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="V77" s="15"/>
+      <c r="W77" s="16"/>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O78" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="15"/>
+      <c r="R78" s="15"/>
+      <c r="S78" s="15"/>
+      <c r="T78" s="15"/>
+      <c r="U78" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="V78" s="15"/>
+      <c r="W78" s="16"/>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O79" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="P79" s="15"/>
+      <c r="Q79" s="15"/>
+      <c r="R79" s="15"/>
+      <c r="S79" s="15"/>
+      <c r="T79" s="15"/>
+      <c r="U79" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="V79" s="15"/>
+      <c r="W79" s="16"/>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O80" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="P80" s="18"/>
+      <c r="Q80" s="18"/>
+      <c r="R80" s="18"/>
+      <c r="S80" s="18"/>
+      <c r="T80" s="18"/>
+      <c r="U80" s="18"/>
+      <c r="V80" s="18"/>
+      <c r="W80" s="19"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:S29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="3.5546875" customWidth="1"/>
+    <col min="10" max="10" width="3.109375" customWidth="1"/>
+    <col min="11" max="13" width="3.5546875" customWidth="1"/>
+    <col min="14" max="14" width="3.77734375" customWidth="1"/>
+    <col min="15" max="15" width="3.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" customWidth="1"/>
+    <col min="18" max="18" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>149</v>
+      </c>
+      <c r="R1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C12" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E17"/>
   <sheetViews>
@@ -835,10 +3385,10 @@
       <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="7"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -921,32 +3471,161 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F5"/>
+  <dimension ref="A2:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C22" s="10" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C29" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>329</v>
+      </c>
+      <c r="J30" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>330</v>
+      </c>
+      <c r="J31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>333</v>
+      </c>
+      <c r="J32" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>327</v>
+      </c>
+      <c r="J33" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -955,7 +3634,813 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D10" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:V66"/>
+  <sheetViews>
+    <sheetView topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="18" max="18" width="16.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K11" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K12" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>175</v>
+      </c>
+      <c r="K19" t="s">
+        <v>176</v>
+      </c>
+      <c r="O19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O29" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O32" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="O34" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="O35" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="O37" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="O38" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="O39" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Q41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Q42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Q43" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Q44" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>251</v>
+      </c>
+      <c r="S47" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>264</v>
+      </c>
+      <c r="R49" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="V49" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>261</v>
+      </c>
+      <c r="R50" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="V50" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>298</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="D64" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="65" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q65" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="S65" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="T65" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="66" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="Q66" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="S66" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="T66" s="20" t="s">
+        <v>307</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D5"/>
   <sheetViews>
@@ -1000,11 +4485,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+    <sheetView topLeftCell="C10" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>

--- a/notes/android_nci_notes.xlsx
+++ b/notes/android_nci_notes.xlsx
@@ -9,19 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2604" windowWidth="23040" windowHeight="8532" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="4464" windowWidth="23040" windowHeight="8532" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="tNFC_CB" sheetId="11" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="doInit" sheetId="1" r:id="rId2"/>
     <sheet name="LLCP" sheetId="10" r:id="rId3"/>
     <sheet name="hal-tml" sheetId="6" r:id="rId4"/>
     <sheet name="Threads" sheetId="7" r:id="rId5"/>
     <sheet name="fw dnld" sheetId="5" r:id="rId6"/>
     <sheet name="callbacks" sheetId="2" r:id="rId7"/>
     <sheet name="NCI" sheetId="3" r:id="rId8"/>
-    <sheet name="Java Layer" sheetId="4" r:id="rId9"/>
+    <sheet name="MBOX" sheetId="4" r:id="rId9"/>
     <sheet name="setDefaultRoute" sheetId="8" r:id="rId10"/>
+    <sheet name="GKI" sheetId="12" r:id="rId11"/>
+    <sheet name="CardEmu" sheetId="13" r:id="rId12"/>
+    <sheet name="Routing" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -210,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="412">
   <si>
     <t>NativeNfcManager.cpp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1559,6 +1562,252 @@
   <si>
     <t>/* event == NFC_ERROR_CEVT */</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NfcAdaptation::Initialize</t>
+  </si>
+  <si>
+    <t>GKI_run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GKI_create_task(NFCA_TASK, BTU_TASK, "NFCA_TASK", ..)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GKI_create_task(Thread, MMI_TASK, "NFCA_THREAD", ..)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GKI_create_task(nfc_task, NFC_TASK, "NFC_TASK", …)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pthread_create( &amp;timer_thread_id,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              &amp;timer_attr,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              timer_thread,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              NULL)</t>
+  </si>
+  <si>
+    <t>GKI_timer_update( 1 );</t>
+  </si>
+  <si>
+    <t>while(!shutdown_timer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        delay.tv_sec = timeout / 1000;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        delay.tv_nsec = 1000 * 1000 * (timeout%1000);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        /* [u]sleep can't be used because it uses SIGALRM */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            err = nanosleep(&amp;delay, &amp;delay);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        } while (err &lt; 0 &amp;&amp; errno ==EINTR);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GKI_timer_update(1);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t>/* Process all incoming NCI messages */</t>
+  </si>
+  <si>
+    <t>while ((p_msg = (BT_HDR *) GKI_read_mbox (NFC_MBOX_ID)) != NULL)</t>
+  </si>
+  <si>
+    <t>if (event &amp; NFC_MBOX_EVT_MASK)</t>
+  </si>
+  <si>
+    <t>/* Process gki timer tick */</t>
+  </si>
+  <si>
+    <t>if (event &amp; NFC_TIMER_EVT_MASK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/* Process quick timer tick */</t>
+  </si>
+  <si>
+    <t>if (event &amp; NFC_QUICK_TIMER_EVT_MASK)</t>
+  </si>
+  <si>
+    <t>if (event &amp; NFA_MBOX_EVT_MASK)</t>
+  </si>
+  <si>
+    <t>while ((p_msg = (BT_HDR *) GKI_read_mbox (NFA_MBOX_ID)) != NULL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                nfa_sys_event (p_msg);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            }</t>
+  </si>
+  <si>
+    <t>if (event &amp; NFA_TIMER_EVT_MASK)</t>
+  </si>
+  <si>
+    <t>nfa_sys_timer_update</t>
+  </si>
+  <si>
+    <t>nfa_ce_action_tbl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE_SetActivatedTagType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ce_select_t4t</t>
+  </si>
+  <si>
+    <t>nfa_ce_discovery_cback</t>
+  </si>
+  <si>
+    <t>NFA_CE_API_REG_LISTEN_EVT</t>
+  </si>
+  <si>
+    <t>nfc_ce_api.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFA_CeConfigureUiccListenTech</t>
+  </si>
+  <si>
+    <t>NFA_CeConfigureEseListenTech</t>
+  </si>
+  <si>
+    <t>NFA_CeRegisterFelicaSystemCodeOnDH</t>
+  </si>
+  <si>
+    <t>NFA_CeDeregisterFelicaSystemCodeOnDH</t>
+  </si>
+  <si>
+    <t>NFA_CeDeregisterAidOnDH</t>
+  </si>
+  <si>
+    <t>NFA_CeSetIsoDepListenTech</t>
+  </si>
+  <si>
+    <t>nfa_ce_api_reg_listen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nfa_ce_start_listening</t>
+  </si>
+  <si>
+    <t>disc_handle = nfa_dm_add_rf_discover (listen_mask, NFA_DM_DISC_HOST_ID_DH, nfa_ce_discovery_cback);</t>
+  </si>
+  <si>
+    <t>ce_msg.activate_ntf.hdr.event = NFA_CE_ACTIVATE_NTF_EVT;</t>
+  </si>
+  <si>
+    <t>ce_msg.activate_ntf.p_activation_params = &amp;p_data-&gt;activate;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nfa_ce_hdl_event ((void *) &amp;ce_msg);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/* card activated */</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nfa_ce_activate_ntf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nfa_dm_excl_disc_cback</t>
+  </si>
+  <si>
+    <t>nfa_dm_cb.disc_cb.excl_disc_entry.p_disc_cback        = p_disc_cback;</t>
+  </si>
+  <si>
+    <t>nfa_dm_start_excl_discovery</t>
+  </si>
+  <si>
+    <t>/* nfa_dm_excl_disc_cback */</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nfa_dm_disc_notify_activation</t>
+  </si>
+  <si>
+    <t>(*(nfa_dm_cb.disc_cb.excl_disc_entry.p_disc_cback)) (NFA_DM_RF_DISC_ACTIVATED_EVT, p_data);</t>
+  </si>
+  <si>
+    <t>GKI_send_msg (NFC_TASK, NFC_MBOX_ID, p_msg);</t>
+  </si>
+  <si>
+    <t>GKI_send_event</t>
+  </si>
+  <si>
+    <t>pthread_cond_signal</t>
+  </si>
+  <si>
+    <t>pthread_cond_timedwait</t>
+  </si>
+  <si>
+    <t>mbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>while (TRUE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event = GKI_wait (0xFFFF, 0);</t>
+  </si>
+  <si>
+    <t>NfcService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyRouting</t>
+  </si>
+  <si>
+    <t>enableInternal</t>
+  </si>
+  <si>
+    <t>computeDiscoveryParameters</t>
+  </si>
+  <si>
+    <t>nfcManager_setDefaultRoute</t>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoutingManager::getInstance().setDefaultRoute(defaultRouteEntry, defaultProtoRouteEntry, defaultTechRouteEntry);</t>
+  </si>
+  <si>
+    <t>RoutingManager::getInstance().commitRouting();</t>
   </si>
 </sst>
 </file>
@@ -1650,7 +1899,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1766,13 +2015,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1799,9 +2074,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1844,6 +2116,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2229,6 +2513,439 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Curved Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4907280" y="274320"/>
+          <a:ext cx="1752600" cy="358140"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Curved Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2411730" y="986790"/>
+          <a:ext cx="350520" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Curved Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3745230" y="1725930"/>
+          <a:ext cx="350520" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Curved Connector 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9944100" y="487680"/>
+          <a:ext cx="982980" cy="563880"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Curved Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7239000" y="2613660"/>
+          <a:ext cx="6088380" cy="2049780"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Curved Connector 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="11071860" y="4328160"/>
+          <a:ext cx="1341120" cy="1287780"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Curved Connector 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="9258300" y="4975860"/>
+          <a:ext cx="1013460" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Curved Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1344930" y="1626870"/>
+          <a:ext cx="434340" cy="274320"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Curved Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4457700" y="3566160"/>
+          <a:ext cx="3383280" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2509,270 +3226,270 @@
       <c r="A3" t="s">
         <v>71</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="13"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="12"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>72</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="16"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="15"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>197</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="16"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="15"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="O6" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="16"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="15"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>199</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="16"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="15"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>179</v>
       </c>
-      <c r="O8" s="14" t="s">
+      <c r="O8" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="16"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="15"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>180</v>
       </c>
-      <c r="O9" s="14" t="s">
+      <c r="O9" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="16"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="15"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>181</v>
       </c>
-      <c r="O10" s="14" t="s">
+      <c r="O10" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="16"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="15"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>182</v>
       </c>
-      <c r="O11" s="14" t="s">
+      <c r="O11" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="16"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="15"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>200</v>
       </c>
-      <c r="O12" s="14" t="s">
+      <c r="O12" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="16"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="15"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>201</v>
       </c>
-      <c r="O13" s="14" t="s">
+      <c r="O13" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="16"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="15"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>202</v>
       </c>
-      <c r="O14" s="14" t="s">
+      <c r="O14" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="16"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="15"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="O15" s="14" t="s">
+      <c r="O15" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="16"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="15"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>203</v>
       </c>
-      <c r="O16" s="14" t="s">
+      <c r="O16" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="16"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="15"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>204</v>
       </c>
-      <c r="O17" s="14" t="s">
+      <c r="O17" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="16"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="15"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>205</v>
       </c>
-      <c r="O18" s="17" t="s">
+      <c r="O18" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
-      <c r="X18" s="19"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="18"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -2978,243 +3695,243 @@
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="O65" s="11" t="s">
+      <c r="O65" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="P65" s="12"/>
-      <c r="Q65" s="12"/>
-      <c r="R65" s="12"/>
-      <c r="S65" s="12"/>
-      <c r="T65" s="12"/>
-      <c r="U65" s="12"/>
-      <c r="V65" s="12"/>
-      <c r="W65" s="13"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="11"/>
+      <c r="T65" s="11"/>
+      <c r="U65" s="11"/>
+      <c r="V65" s="11"/>
+      <c r="W65" s="12"/>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>238</v>
       </c>
-      <c r="O66" s="14" t="s">
+      <c r="O66" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="P66" s="15"/>
-      <c r="Q66" s="15"/>
-      <c r="R66" s="15"/>
-      <c r="S66" s="15"/>
-      <c r="T66" s="15"/>
-      <c r="U66" s="15"/>
-      <c r="V66" s="15"/>
-      <c r="W66" s="16"/>
+      <c r="P66" s="14"/>
+      <c r="Q66" s="14"/>
+      <c r="R66" s="14"/>
+      <c r="S66" s="14"/>
+      <c r="T66" s="14"/>
+      <c r="U66" s="14"/>
+      <c r="V66" s="14"/>
+      <c r="W66" s="15"/>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="O67" s="14" t="s">
+      <c r="O67" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="P67" s="15"/>
-      <c r="Q67" s="15"/>
-      <c r="R67" s="15"/>
-      <c r="S67" s="15"/>
-      <c r="T67" s="15"/>
-      <c r="U67" s="21" t="s">
+      <c r="P67" s="14"/>
+      <c r="Q67" s="14"/>
+      <c r="R67" s="14"/>
+      <c r="S67" s="14"/>
+      <c r="T67" s="14"/>
+      <c r="U67" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="V67" s="15"/>
-      <c r="W67" s="16"/>
+      <c r="V67" s="14"/>
+      <c r="W67" s="15"/>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>184</v>
       </c>
-      <c r="O68" s="14" t="s">
+      <c r="O68" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="P68" s="15"/>
-      <c r="Q68" s="15"/>
-      <c r="R68" s="15"/>
-      <c r="S68" s="15"/>
-      <c r="T68" s="15"/>
-      <c r="U68" s="22" t="s">
+      <c r="P68" s="14"/>
+      <c r="Q68" s="14"/>
+      <c r="R68" s="14"/>
+      <c r="S68" s="14"/>
+      <c r="T68" s="14"/>
+      <c r="U68" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="V68" s="15"/>
-      <c r="W68" s="16"/>
+      <c r="V68" s="14"/>
+      <c r="W68" s="15"/>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="O69" s="14" t="s">
+      <c r="O69" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="P69" s="15"/>
-      <c r="Q69" s="15"/>
-      <c r="R69" s="15"/>
-      <c r="S69" s="15"/>
-      <c r="T69" s="15"/>
-      <c r="U69" s="22" t="s">
+      <c r="P69" s="14"/>
+      <c r="Q69" s="14"/>
+      <c r="R69" s="14"/>
+      <c r="S69" s="14"/>
+      <c r="T69" s="14"/>
+      <c r="U69" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="V69" s="15"/>
-      <c r="W69" s="16"/>
+      <c r="V69" s="14"/>
+      <c r="W69" s="15"/>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="O70" s="14" t="s">
+      <c r="O70" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="P70" s="15"/>
-      <c r="Q70" s="15"/>
-      <c r="R70" s="15"/>
-      <c r="S70" s="15"/>
-      <c r="T70" s="15"/>
-      <c r="U70" s="22" t="s">
+      <c r="P70" s="14"/>
+      <c r="Q70" s="14"/>
+      <c r="R70" s="14"/>
+      <c r="S70" s="14"/>
+      <c r="T70" s="14"/>
+      <c r="U70" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="V70" s="15"/>
-      <c r="W70" s="16"/>
+      <c r="V70" s="14"/>
+      <c r="W70" s="15"/>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="O71" s="14" t="s">
+      <c r="O71" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="P71" s="15"/>
-      <c r="Q71" s="15"/>
-      <c r="R71" s="15"/>
-      <c r="S71" s="15"/>
-      <c r="T71" s="15"/>
-      <c r="U71" s="22" t="s">
+      <c r="P71" s="14"/>
+      <c r="Q71" s="14"/>
+      <c r="R71" s="14"/>
+      <c r="S71" s="14"/>
+      <c r="T71" s="14"/>
+      <c r="U71" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="V71" s="15"/>
-      <c r="W71" s="16"/>
+      <c r="V71" s="14"/>
+      <c r="W71" s="15"/>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="O72" s="14" t="s">
+      <c r="O72" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="P72" s="15"/>
-      <c r="Q72" s="15"/>
-      <c r="R72" s="15"/>
-      <c r="S72" s="15"/>
-      <c r="T72" s="15"/>
-      <c r="U72" s="22" t="s">
+      <c r="P72" s="14"/>
+      <c r="Q72" s="14"/>
+      <c r="R72" s="14"/>
+      <c r="S72" s="14"/>
+      <c r="T72" s="14"/>
+      <c r="U72" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="V72" s="15"/>
-      <c r="W72" s="16"/>
+      <c r="V72" s="14"/>
+      <c r="W72" s="15"/>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="O73" s="14" t="s">
+      <c r="O73" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="P73" s="15"/>
-      <c r="Q73" s="15"/>
-      <c r="R73" s="15"/>
-      <c r="S73" s="15"/>
-      <c r="T73" s="15"/>
-      <c r="U73" s="22"/>
-      <c r="V73" s="15"/>
-      <c r="W73" s="16"/>
+      <c r="P73" s="14"/>
+      <c r="Q73" s="14"/>
+      <c r="R73" s="14"/>
+      <c r="S73" s="14"/>
+      <c r="T73" s="14"/>
+      <c r="U73" s="21"/>
+      <c r="V73" s="14"/>
+      <c r="W73" s="15"/>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="O74" s="14" t="s">
+      <c r="O74" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="P74" s="15"/>
-      <c r="Q74" s="15"/>
-      <c r="R74" s="15"/>
-      <c r="S74" s="15"/>
-      <c r="T74" s="15"/>
-      <c r="U74" s="22" t="s">
+      <c r="P74" s="14"/>
+      <c r="Q74" s="14"/>
+      <c r="R74" s="14"/>
+      <c r="S74" s="14"/>
+      <c r="T74" s="14"/>
+      <c r="U74" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="V74" s="15"/>
-      <c r="W74" s="16"/>
+      <c r="V74" s="14"/>
+      <c r="W74" s="15"/>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="O75" s="14" t="s">
+      <c r="O75" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="P75" s="15"/>
-      <c r="Q75" s="15"/>
-      <c r="R75" s="15"/>
-      <c r="S75" s="15"/>
-      <c r="T75" s="15"/>
-      <c r="U75" s="22"/>
-      <c r="V75" s="15"/>
-      <c r="W75" s="16"/>
+      <c r="P75" s="14"/>
+      <c r="Q75" s="14"/>
+      <c r="R75" s="14"/>
+      <c r="S75" s="14"/>
+      <c r="T75" s="14"/>
+      <c r="U75" s="21"/>
+      <c r="V75" s="14"/>
+      <c r="W75" s="15"/>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="O76" s="14" t="s">
+      <c r="O76" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="P76" s="15"/>
-      <c r="Q76" s="15"/>
-      <c r="R76" s="15"/>
-      <c r="S76" s="15"/>
-      <c r="T76" s="15"/>
-      <c r="U76" s="22" t="s">
+      <c r="P76" s="14"/>
+      <c r="Q76" s="14"/>
+      <c r="R76" s="14"/>
+      <c r="S76" s="14"/>
+      <c r="T76" s="14"/>
+      <c r="U76" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="V76" s="15"/>
-      <c r="W76" s="16"/>
+      <c r="V76" s="14"/>
+      <c r="W76" s="15"/>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="O77" s="14" t="s">
+      <c r="O77" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="P77" s="15"/>
-      <c r="Q77" s="15"/>
-      <c r="R77" s="15"/>
-      <c r="S77" s="15"/>
-      <c r="T77" s="15"/>
-      <c r="U77" s="22" t="s">
+      <c r="P77" s="14"/>
+      <c r="Q77" s="14"/>
+      <c r="R77" s="14"/>
+      <c r="S77" s="14"/>
+      <c r="T77" s="14"/>
+      <c r="U77" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="V77" s="15"/>
-      <c r="W77" s="16"/>
+      <c r="V77" s="14"/>
+      <c r="W77" s="15"/>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="O78" s="14" t="s">
+      <c r="O78" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
-      <c r="R78" s="15"/>
-      <c r="S78" s="15"/>
-      <c r="T78" s="15"/>
-      <c r="U78" s="22" t="s">
+      <c r="P78" s="14"/>
+      <c r="Q78" s="14"/>
+      <c r="R78" s="14"/>
+      <c r="S78" s="14"/>
+      <c r="T78" s="14"/>
+      <c r="U78" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="V78" s="15"/>
-      <c r="W78" s="16"/>
+      <c r="V78" s="14"/>
+      <c r="W78" s="15"/>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="O79" s="14" t="s">
+      <c r="O79" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="P79" s="15"/>
-      <c r="Q79" s="15"/>
-      <c r="R79" s="15"/>
-      <c r="S79" s="15"/>
-      <c r="T79" s="15"/>
-      <c r="U79" s="22" t="s">
+      <c r="P79" s="14"/>
+      <c r="Q79" s="14"/>
+      <c r="R79" s="14"/>
+      <c r="S79" s="14"/>
+      <c r="T79" s="14"/>
+      <c r="U79" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="V79" s="15"/>
-      <c r="W79" s="16"/>
+      <c r="V79" s="14"/>
+      <c r="W79" s="15"/>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="O80" s="17" t="s">
+      <c r="O80" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="P80" s="18"/>
-      <c r="Q80" s="18"/>
-      <c r="R80" s="18"/>
-      <c r="S80" s="18"/>
-      <c r="T80" s="18"/>
-      <c r="U80" s="18"/>
-      <c r="V80" s="18"/>
-      <c r="W80" s="19"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
+      <c r="R80" s="17"/>
+      <c r="S80" s="17"/>
+      <c r="T80" s="17"/>
+      <c r="U80" s="17"/>
+      <c r="V80" s="17"/>
+      <c r="W80" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3362,6 +4079,429 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:W33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>336</v>
+      </c>
+      <c r="M3" t="s">
+        <v>337</v>
+      </c>
+      <c r="S3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>338</v>
+      </c>
+      <c r="N4" t="s">
+        <v>341</v>
+      </c>
+      <c r="T4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>339</v>
+      </c>
+      <c r="N5" t="s">
+        <v>342</v>
+      </c>
+      <c r="T5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>343</v>
+      </c>
+      <c r="T6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
+        <v>344</v>
+      </c>
+      <c r="T7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>114</v>
+      </c>
+      <c r="N8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>340</v>
+      </c>
+      <c r="T9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="T11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>115</v>
+      </c>
+      <c r="T12" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>402</v>
+      </c>
+      <c r="T13" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>403</v>
+      </c>
+      <c r="T14" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>357</v>
+      </c>
+      <c r="T16" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="17" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>359</v>
+      </c>
+      <c r="T17" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="18" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="20" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="21" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="23" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>362</v>
+      </c>
+      <c r="T23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>363</v>
+      </c>
+      <c r="U24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="25" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="V25" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="26" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>364</v>
+      </c>
+      <c r="W26" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="27" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="28" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="29" spans="9:23" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J29" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="30" spans="9:23" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J30" t="s">
+        <v>368</v>
+      </c>
+      <c r="R30" s="23" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="31" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>369</v>
+      </c>
+      <c r="R31" s="24"/>
+    </row>
+    <row r="32" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>370</v>
+      </c>
+      <c r="R32" s="24"/>
+    </row>
+    <row r="33" spans="18:18" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R33" s="25"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:P33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>374</v>
+      </c>
+      <c r="M19" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>386</v>
+      </c>
+      <c r="N20" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>387</v>
+      </c>
+      <c r="O21" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>388</v>
+      </c>
+      <c r="P22" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>392</v>
+      </c>
+      <c r="L28" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>391</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>411</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E17"/>
@@ -3385,10 +4525,10 @@
       <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="9"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -3475,8 +4615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3502,7 +4642,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3557,7 +4697,7 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>314</v>
       </c>
     </row>
@@ -3587,7 +4727,7 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>328</v>
       </c>
     </row>
@@ -3696,7 +4836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
@@ -4067,8 +5207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:V66"/>
   <sheetViews>
-    <sheetView topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="K62" sqref="K62"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4297,7 +5437,7 @@
       <c r="Q49" t="s">
         <v>264</v>
       </c>
-      <c r="R49" s="10" t="s">
+      <c r="R49" s="9" t="s">
         <v>263</v>
       </c>
       <c r="V49" t="s">
@@ -4308,7 +5448,7 @@
       <c r="B50" t="s">
         <v>261</v>
       </c>
-      <c r="R50" s="20" t="s">
+      <c r="R50" s="19" t="s">
         <v>307</v>
       </c>
       <c r="V50" t="s">
@@ -4400,7 +5540,7 @@
       <c r="B64" t="s">
         <v>298</v>
       </c>
-      <c r="C64" s="23" t="s">
+      <c r="C64" s="22" t="s">
         <v>308</v>
       </c>
       <c r="D64" t="s">
@@ -4411,24 +5551,24 @@
       <c r="C65" t="s">
         <v>295</v>
       </c>
-      <c r="Q65" s="10" t="s">
+      <c r="Q65" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="S65" s="23" t="s">
+      <c r="S65" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="T65" s="10" t="s">
+      <c r="T65" s="9" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="66" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="Q66" s="20" t="s">
+      <c r="Q66" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="S66" s="23" t="s">
+      <c r="S66" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="T66" s="20" t="s">
+      <c r="T66" s="19" t="s">
         <v>307</v>
       </c>
     </row>
@@ -4445,7 +5585,7 @@
   <dimension ref="B1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4489,8 +5629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/notes/android_nci_notes.xlsx
+++ b/notes/android_nci_notes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4464" windowWidth="23040" windowHeight="8532" firstSheet="3" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="4836" windowWidth="23040" windowHeight="8532" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="tNFC_CB" sheetId="11" r:id="rId1"/>
@@ -212,8 +212,69 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>nxp97381</author>
+  </authors>
+  <commentList>
+    <comment ref="N17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>nxp97381:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+nxp.conf
+DEFAULT_AID_ROUTE=0x02
+UICC</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>nxp97381:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+nxp.conf
+DEFAULT_AID_PWR_STATE=0x1B</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="481">
   <si>
     <t>NativeNfcManager.cpp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1595,9 +1656,6 @@
     <t xml:space="preserve">              NULL)</t>
   </si>
   <si>
-    <t>GKI_timer_update( 1 );</t>
-  </si>
-  <si>
     <t>while(!shutdown_timer)</t>
   </si>
   <si>
@@ -1804,17 +1862,292 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>RoutingManager::getInstance().commitRouting();</t>
+  </si>
+  <si>
+    <t>Timer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GKI_timer_queue_register_callback (gki_system_tick_start_stop_cback)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/* p_tick_cb = gki_system_tick_start_stop_cback */</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for (;GKI_TIMER_TICK_EXIT_COND != *p_run_cond;)</t>
+  </si>
+  <si>
+    <t>} while ( GKI_TIMER_TICK_RUN_COND == *p_run_cond);</t>
+  </si>
+  <si>
+    <t>do {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GKI_timer_update (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ifdef NO_GKI_RUN_RETURN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#endif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*p_run_cond = GKI_TIMER_TICK_STOP_COND;</t>
+  </si>
+  <si>
+    <t>*p_run_cond = GKI_TIMER_TICK_RUN_COND;</t>
+  </si>
+  <si>
+    <t>GKI_stop_timer</t>
+  </si>
+  <si>
+    <t>NFCA_TASK (taskid=4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nfc_task (taskid=3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GKI_run (taskid=4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>RoutingManager::getInstance().setDefaultRoute(defaultRouteEntry, defaultProtoRouteEntry, defaultTechRouteEntry);</t>
-  </si>
-  <si>
-    <t>RoutingManager::getInstance().commitRouting();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setDefaultRoute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROUTE_LOC_MASK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT_XXX_PWR_STATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src_off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src_lock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bat_off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def_route</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defaultRoute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protoRoute</t>
+  </si>
+  <si>
+    <t>NAME_DEFAULT_AID_ROUTE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME_DEFAULT_DESFIRE_ROUTE</t>
+  </si>
+  <si>
+    <t>NAME_DEFAULT_MIFARE_CLT_ROUTE</t>
+  </si>
+  <si>
+    <t>techRoute</t>
+  </si>
+  <si>
+    <t>RoutingManager.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleanRouting</t>
+  </si>
+  <si>
+    <t>NFA_EeSetDefaultTechRouting</t>
+  </si>
+  <si>
+    <t>nfaConnectionCallback</t>
+  </si>
+  <si>
+    <t>nfaDeviceManagementCallback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verify validity of p_cb-&gt;listen_info (routing table entry)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoutingManager::stackCallback</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NFA_CeRegisterAidOnDH (NULL, 0, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stackCallback</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notifyActivated</t>
+  </si>
+  <si>
+    <t>android::checkforTranscation</t>
+  </si>
+  <si>
+    <t>notifyDeactivated</t>
+  </si>
+  <si>
+    <t>handleData</t>
+  </si>
+  <si>
+    <t>NFA_CE_ACTIVATED_EVT</t>
+  </si>
+  <si>
+    <t>NFA_DEACTIVATED_EVT</t>
+  </si>
+  <si>
+    <t>/* notify java layer */</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mRxDataBuffer.insert</t>
+  </si>
+  <si>
+    <t>CardEmulationManager.onHostCardEmulationData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NativeNfcManager.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardEmulationManager.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nfa_ce_api_reg_listen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFA_EeSetDefaultProtoRouting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nfa_ee_api_set_proto_cfg</t>
+  </si>
+  <si>
+    <t>nfa_ee_api_set_tech_cfg</t>
+  </si>
+  <si>
+    <t>nfa_ee_evt_hdlr</t>
+  </si>
+  <si>
+    <t>nfa_ee_update_rout</t>
+  </si>
+  <si>
+    <t>nfa_ee_route_add_one_ecb</t>
+  </si>
+  <si>
+    <t>NFC_SetRouting</t>
+  </si>
+  <si>
+    <t>NFC_SetRouting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nfa_ee_check_set_routing</t>
+  </si>
+  <si>
+    <t>nfa_ee_lmrt_to_nfcc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nfa_ee_actions[NFA_EE_CFG_TO_NFCC_EVT] ()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nfc_ee_api_update_now</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nfa_ee_rout_timeout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFA_EeUpdateNow</t>
+  </si>
+  <si>
+    <t>RoutingManager::commitRouting</t>
+  </si>
+  <si>
+    <t>RoutingManager::setDefaultTechRouting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1878,6 +2211,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1899,7 +2240,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -2041,13 +2382,99 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2127,6 +2554,42 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2659,15 +3122,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>129540</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2676,8 +3139,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9944100" y="487680"/>
-          <a:ext cx="982980" cy="563880"/>
+          <a:off x="9883140" y="487680"/>
+          <a:ext cx="1043940" cy="708660"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst/>
@@ -2844,6 +3307,53 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Curved Connector 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5455920" y="7787640"/>
+          <a:ext cx="2324100" cy="1120140"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2918,6 +3428,105 @@
         <a:xfrm flipV="1">
           <a:off x="4457700" y="3566160"/>
           <a:ext cx="3383280" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Curved Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6545580" y="3947160"/>
+          <a:ext cx="1874520" cy="1798320"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Curved Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5417820" y="8016240"/>
+          <a:ext cx="472440" cy="350520"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst/>
@@ -4081,20 +4690,23 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W33"/>
+  <dimension ref="A2:W49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="L2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+      <c r="S2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>336</v>
       </c>
@@ -4105,128 +4717,137 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>338</v>
       </c>
       <c r="N4" t="s">
-        <v>341</v>
+        <v>418</v>
       </c>
       <c r="T4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>339</v>
       </c>
       <c r="N5" t="s">
+        <v>341</v>
+      </c>
+      <c r="T5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
         <v>342</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T6" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="N6" t="s">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
         <v>343</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T7" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="N7" t="s">
-        <v>344</v>
-      </c>
-      <c r="T7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>114</v>
       </c>
       <c r="N8" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>340</v>
       </c>
+      <c r="N9" t="s">
+        <v>419</v>
+      </c>
       <c r="T9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="T11" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="T11" t="s">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>424</v>
+      </c>
+      <c r="T12" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="G12" t="s">
-        <v>115</v>
-      </c>
-      <c r="T12" t="s">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>401</v>
+      </c>
+      <c r="T13" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="H13" t="s">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
         <v>402</v>
       </c>
-      <c r="T13" t="s">
+      <c r="T14" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I14" t="s">
-        <v>403</v>
-      </c>
-      <c r="T14" t="s">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>356</v>
+      </c>
+      <c r="T16" s="8" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="J15" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I16" t="s">
-        <v>357</v>
-      </c>
-      <c r="T16" t="s">
-        <v>355</v>
-      </c>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
     </row>
     <row r="17" spans="9:23" x14ac:dyDescent="0.25">
       <c r="I17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="T17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="9:23" x14ac:dyDescent="0.25">
       <c r="J18" t="s">
-        <v>358</v>
+        <v>357</v>
+      </c>
+      <c r="S18" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="9:23" x14ac:dyDescent="0.25">
       <c r="I20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21" spans="9:23" x14ac:dyDescent="0.25">
       <c r="I21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="9:23" x14ac:dyDescent="0.25">
       <c r="I23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="T23" t="s">
         <v>277</v>
@@ -4234,67 +4855,134 @@
     </row>
     <row r="24" spans="9:23" x14ac:dyDescent="0.25">
       <c r="I24" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="U24" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" spans="9:23" x14ac:dyDescent="0.25">
       <c r="V25" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="26" spans="9:23" x14ac:dyDescent="0.25">
       <c r="I26" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="W26" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="27" spans="9:23" x14ac:dyDescent="0.25">
       <c r="J27" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="28" spans="9:23" x14ac:dyDescent="0.25">
       <c r="J28" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="29" spans="9:23" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="30" spans="9:23" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="R30" s="23" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="9:23" x14ac:dyDescent="0.25">
       <c r="I31" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="R31" s="24"/>
     </row>
     <row r="32" spans="9:23" x14ac:dyDescent="0.25">
       <c r="J32" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="R32" s="24"/>
     </row>
-    <row r="33" spans="18:18" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R33" s="25"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>411</v>
+      </c>
+      <c r="K41" s="27" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>413</v>
+      </c>
+      <c r="M42" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N43" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>414</v>
+      </c>
+      <c r="N45" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E48" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>415</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4310,27 +4998,27 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -4340,97 +5028,97 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="P22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -4442,63 +5130,385 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" customWidth="1"/>
+    <col min="5" max="5" width="5" customWidth="1"/>
+    <col min="6" max="6" width="23.21875" customWidth="1"/>
+    <col min="7" max="7" width="5.77734375" customWidth="1"/>
+    <col min="8" max="8" width="9.21875" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="18" max="18" width="8.44140625" customWidth="1"/>
+    <col min="19" max="19" width="10.21875" customWidth="1"/>
+    <col min="20" max="20" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>403</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="37" t="s">
+        <v>462</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36" t="s">
+        <v>463</v>
+      </c>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="38"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F7" t="s">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R10" t="s">
+        <v>438</v>
+      </c>
+      <c r="T10" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R11" t="s">
+        <v>439</v>
+      </c>
+      <c r="T11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G9" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G12" t="s">
-        <v>411</v>
+      <c r="R12" t="s">
+        <v>443</v>
+      </c>
+      <c r="T12" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N14" s="31" t="s">
+        <v>428</v>
+      </c>
+      <c r="O14" s="32"/>
+      <c r="P14" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N15" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="O15" s="34"/>
+      <c r="P15" s="28" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q15" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="R15" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="S15" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="T15" s="28" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>427</v>
+      </c>
+      <c r="N16" s="28">
+        <v>1</v>
+      </c>
+      <c r="O16" s="28">
+        <v>0</v>
+      </c>
+      <c r="P16" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="28">
+        <v>1</v>
+      </c>
+      <c r="R16" s="28">
+        <v>0</v>
+      </c>
+      <c r="S16" s="28">
+        <v>1</v>
+      </c>
+      <c r="T16" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>413</v>
+      </c>
+      <c r="N17" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="O17" s="34"/>
+      <c r="P17" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+    </row>
+    <row r="18" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="19" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="20" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="21" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="22" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="23" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="O23" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="25" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="O25" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="32" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="O32" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="33" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="P33" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="35" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="P35" s="9" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="36" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="P36" s="9"/>
+      <c r="Q36" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="37" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="R37" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="38" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="R38" t="s">
+        <v>453</v>
+      </c>
+      <c r="T38" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="39" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="Q39" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="40" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="R40" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="41" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>480</v>
+      </c>
+      <c r="R41" t="s">
+        <v>455</v>
+      </c>
+      <c r="T41" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="42" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="43" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>479</v>
+      </c>
+      <c r="R43" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="44" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>478</v>
+      </c>
+      <c r="S44" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="45" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="S45" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="46" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="K46" t="s">
+        <v>476</v>
+      </c>
+      <c r="T46" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="47" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="L47" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="48" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="M48" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="49" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N49" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="50" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="O50" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="51" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="O51" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="52" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="P52" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="53" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q53" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="54" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="R54" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="55" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q55" t="s">
+        <v>472</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="G1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="P17:T17"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5207,27 +6217,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:V66"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="16" max="16" width="11.109375" customWidth="1"/>
     <col min="18" max="18" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>19</v>
       </c>
@@ -5235,12 +6246,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>171</v>
       </c>
@@ -5248,17 +6259,17 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="K9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="K10" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="K11" s="8" t="s">
         <v>168</v>
       </c>
@@ -5267,7 +6278,7 @@
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="K12" s="8" t="s">
         <v>169</v>
       </c>
@@ -5276,19 +6287,31 @@
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="K13" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="K15" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q15" t="s">
+        <v>449</v>
+      </c>
+      <c r="R15" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="K16" t="s">
         <v>173</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>449</v>
+      </c>
+      <c r="R16" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">

--- a/notes/android_nci_notes.xlsx
+++ b/notes/android_nci_notes.xlsx
@@ -9,22 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4836" windowWidth="23040" windowHeight="8532" firstSheet="3" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="5208" windowWidth="23040" windowHeight="8532" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="tNFC_CB" sheetId="11" r:id="rId1"/>
     <sheet name="doInit" sheetId="1" r:id="rId2"/>
     <sheet name="LLCP" sheetId="10" r:id="rId3"/>
     <sheet name="hal-tml" sheetId="6" r:id="rId4"/>
-    <sheet name="Threads" sheetId="7" r:id="rId5"/>
-    <sheet name="fw dnld" sheetId="5" r:id="rId6"/>
-    <sheet name="callbacks" sheetId="2" r:id="rId7"/>
-    <sheet name="NCI" sheetId="3" r:id="rId8"/>
-    <sheet name="MBOX" sheetId="4" r:id="rId9"/>
-    <sheet name="setDefaultRoute" sheetId="8" r:id="rId10"/>
-    <sheet name="GKI" sheetId="12" r:id="rId11"/>
-    <sheet name="CardEmu" sheetId="13" r:id="rId12"/>
-    <sheet name="Routing" sheetId="14" r:id="rId13"/>
+    <sheet name="MinInit" sheetId="15" r:id="rId5"/>
+    <sheet name="Diversity Mgr" sheetId="16" r:id="rId6"/>
+    <sheet name="Threads" sheetId="7" r:id="rId7"/>
+    <sheet name="fw dnld" sheetId="5" r:id="rId8"/>
+    <sheet name="callbacks" sheetId="2" r:id="rId9"/>
+    <sheet name="NCI" sheetId="3" r:id="rId10"/>
+    <sheet name="MBOX" sheetId="4" r:id="rId11"/>
+    <sheet name="setDefaultRoute" sheetId="8" r:id="rId12"/>
+    <sheet name="GKI" sheetId="12" r:id="rId13"/>
+    <sheet name="CardEmu" sheetId="13" r:id="rId14"/>
+    <sheet name="Routing" sheetId="14" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -274,7 +276,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="501">
   <si>
     <t>NativeNfcManager.cpp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2141,6 +2143,93 @@
   </si>
   <si>
     <t>RoutingManager::setDefaultTechRouting</t>
+  </si>
+  <si>
+    <t>NfcAdaptation::MinInitialize</t>
+  </si>
+  <si>
+    <t>nfcManager_doPartialInitialize</t>
+  </si>
+  <si>
+    <t>phNxpNciHal_MinOpen</t>
+  </si>
+  <si>
+    <t>if(nxpncihal_ctrl.hal_boot_mode == NFC_FAST_BOOT_MODE)</t>
+  </si>
+  <si>
+    <t>a/core/java/com/nxp/nfc/INxpNfcAdapter.aidl</t>
+  </si>
+  <si>
+    <t>INxpNfcAdapter</t>
+  </si>
+  <si>
+    <t>int setConfig(String configs , String pkg);</t>
+  </si>
+  <si>
+    <t>sNxpService.setConfig(configs , pkg);</t>
+  </si>
+  <si>
+    <t>WalletMainActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a/src/com/android/nfc/NfcService.java</t>
+  </si>
+  <si>
+    <t>public int setConfig(String configs , String pkg) {</t>
+  </si>
+  <si>
+    <t>mDeviceHost.isNfccBusy()</t>
+  </si>
+  <si>
+    <t>File newTextFile = new File("/data/nfc/libnfc-nxpTransit.conf");</t>
+  </si>
+  <si>
+    <t>mNfcAdapter.disable(true);</t>
+  </si>
+  <si>
+    <t>mNfcAdapter.enable();</t>
+  </si>
+  <si>
+    <r>
+      <t>mNxpNfcAdapter.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setConfig</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(null,mAppContext.getPackageName());</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transit_config_path = "/data/nfc"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> CNfcConfig::readConfig</t>
+  </si>
+  <si>
+    <t>readOptionalConfig</t>
+  </si>
+  <si>
+    <t>readNxpTransitConfig("nxpTransit")</t>
   </si>
 </sst>
 </file>
@@ -2553,19 +2642,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2581,15 +2679,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4552,6 +4641,255 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="51.88671875" customWidth="1"/>
+    <col min="11" max="11" width="35.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="101.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D11" s="5"/>
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D12" s="5"/>
+      <c r="H12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D13" s="5"/>
+      <c r="H13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4688,7 +5026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W49"/>
   <sheetViews>
@@ -4926,7 +5264,7 @@
       <c r="C41" t="s">
         <v>411</v>
       </c>
-      <c r="K41" s="27" t="s">
+      <c r="K41" s="26" t="s">
         <v>412</v>
       </c>
     </row>
@@ -4986,7 +5324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P33"/>
   <sheetViews>
@@ -5129,12 +5467,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5154,37 +5492,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="28" t="s">
         <v>462</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="30" t="s">
         <v>444</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36" t="s">
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30" t="s">
         <v>463</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="38"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="31"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -5249,36 +5587,36 @@
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="N14" s="31" t="s">
+      <c r="N14" s="34" t="s">
         <v>428</v>
       </c>
-      <c r="O14" s="32"/>
-      <c r="P14" s="30" t="s">
+      <c r="O14" s="35"/>
+      <c r="P14" s="32" t="s">
         <v>429</v>
       </c>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="N15" s="33" t="s">
+      <c r="N15" s="36" t="s">
         <v>435</v>
       </c>
-      <c r="O15" s="34"/>
-      <c r="P15" s="28" t="s">
+      <c r="O15" s="37"/>
+      <c r="P15" s="27" t="s">
         <v>432</v>
       </c>
-      <c r="Q15" s="28" t="s">
+      <c r="Q15" s="27" t="s">
         <v>433</v>
       </c>
-      <c r="R15" s="28" t="s">
+      <c r="R15" s="27" t="s">
         <v>434</v>
       </c>
-      <c r="S15" s="28" t="s">
+      <c r="S15" s="27" t="s">
         <v>430</v>
       </c>
-      <c r="T15" s="28" t="s">
+      <c r="T15" s="27" t="s">
         <v>431</v>
       </c>
     </row>
@@ -5286,25 +5624,25 @@
       <c r="G16" t="s">
         <v>427</v>
       </c>
-      <c r="N16" s="28">
+      <c r="N16" s="27">
         <v>1</v>
       </c>
-      <c r="O16" s="28">
+      <c r="O16" s="27">
         <v>0</v>
       </c>
-      <c r="P16" s="28">
+      <c r="P16" s="27">
         <v>1</v>
       </c>
-      <c r="Q16" s="28">
+      <c r="Q16" s="27">
         <v>1</v>
       </c>
-      <c r="R16" s="28">
+      <c r="R16" s="27">
         <v>0</v>
       </c>
-      <c r="S16" s="28">
+      <c r="S16" s="27">
         <v>1</v>
       </c>
-      <c r="T16" s="28">
+      <c r="T16" s="27">
         <v>1</v>
       </c>
     </row>
@@ -5312,17 +5650,17 @@
       <c r="H17" t="s">
         <v>413</v>
       </c>
-      <c r="N17" s="33" t="s">
+      <c r="N17" s="36" t="s">
         <v>436</v>
       </c>
-      <c r="O17" s="34"/>
-      <c r="P17" s="29" t="s">
+      <c r="O17" s="37"/>
+      <c r="P17" s="33" t="s">
         <v>437</v>
       </c>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
     </row>
     <row r="18" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H18" t="s">
@@ -5495,6 +5833,7 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:S1"/>
     <mergeCell ref="T1:W1"/>
     <mergeCell ref="P14:T14"/>
@@ -5502,7 +5841,6 @@
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5535,10 +5873,10 @@
       <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -5844,6 +6182,146 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>483</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>493</v>
+      </c>
+      <c r="K14" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C16" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6036,7 +6514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
@@ -6213,7 +6691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:V66"/>
   <sheetViews>
@@ -6601,253 +7079,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="51.88671875" customWidth="1"/>
-    <col min="11" max="11" width="35.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="101.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="5"/>
-      <c r="H11" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D12" s="5"/>
-      <c r="H12" t="s">
-        <v>62</v>
-      </c>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D13" s="5"/>
-      <c r="H13" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="H17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="H18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F20" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D22" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="H24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="H25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="H27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="H28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="H29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="H30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="H31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/notes/android_nci_notes.xlsx
+++ b/notes/android_nci_notes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5208" windowWidth="23040" windowHeight="8532" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="5952" windowWidth="23040" windowHeight="8532" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="tNFC_CB" sheetId="11" r:id="rId1"/>
@@ -18,15 +18,16 @@
     <sheet name="hal-tml" sheetId="6" r:id="rId4"/>
     <sheet name="MinInit" sheetId="15" r:id="rId5"/>
     <sheet name="Diversity Mgr" sheetId="16" r:id="rId6"/>
-    <sheet name="Threads" sheetId="7" r:id="rId7"/>
-    <sheet name="fw dnld" sheetId="5" r:id="rId8"/>
-    <sheet name="callbacks" sheetId="2" r:id="rId9"/>
-    <sheet name="NCI" sheetId="3" r:id="rId10"/>
-    <sheet name="MBOX" sheetId="4" r:id="rId11"/>
-    <sheet name="setDefaultRoute" sheetId="8" r:id="rId12"/>
-    <sheet name="GKI" sheetId="12" r:id="rId13"/>
-    <sheet name="CardEmu" sheetId="13" r:id="rId14"/>
-    <sheet name="Routing" sheetId="14" r:id="rId15"/>
+    <sheet name="HW devices" sheetId="17" r:id="rId7"/>
+    <sheet name="Threads" sheetId="7" r:id="rId8"/>
+    <sheet name="fw dnld" sheetId="5" r:id="rId9"/>
+    <sheet name="callbacks" sheetId="2" r:id="rId10"/>
+    <sheet name="NCI" sheetId="3" r:id="rId11"/>
+    <sheet name="MBOX" sheetId="4" r:id="rId12"/>
+    <sheet name="setDefaultRoute" sheetId="8" r:id="rId13"/>
+    <sheet name="GKI" sheetId="12" r:id="rId14"/>
+    <sheet name="CardEmu" sheetId="13" r:id="rId15"/>
+    <sheet name="Routing" sheetId="14" r:id="rId16"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -276,7 +277,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="512">
   <si>
     <t>NativeNfcManager.cpp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2231,12 +2232,55 @@
   <si>
     <t>readNxpTransitConfig("nxpTransit")</t>
   </si>
+  <si>
+    <t>driver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pn548.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pn548irqCEresume_kthread</t>
+  </si>
+  <si>
+    <t>3 Frd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 Knt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Harry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snowball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kevin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2Knt, 3Frd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2307,6 +2351,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2563,7 +2614,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2654,6 +2705,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2678,8 +2732,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4641,6 +4695,396 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:V66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="16" max="16" width="11.109375" customWidth="1"/>
+    <col min="18" max="18" width="16.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="K11" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="K12" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>449</v>
+      </c>
+      <c r="R15" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>449</v>
+      </c>
+      <c r="R16" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>175</v>
+      </c>
+      <c r="K19" t="s">
+        <v>176</v>
+      </c>
+      <c r="O19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O29" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O32" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="O34" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="O35" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="O37" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="O38" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="O39" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Q41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Q42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Q43" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Q44" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>251</v>
+      </c>
+      <c r="S47" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>264</v>
+      </c>
+      <c r="R49" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="V49" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>261</v>
+      </c>
+      <c r="R50" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="V50" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>298</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="D64" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="65" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q65" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="S65" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="T65" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="66" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="Q66" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="S66" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="T66" s="19" t="s">
+        <v>307</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4684,7 +5128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
@@ -4888,7 +5332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S29"/>
   <sheetViews>
@@ -5026,7 +5470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W49"/>
   <sheetViews>
@@ -5324,7 +5768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P33"/>
   <sheetViews>
@@ -5467,7 +5911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W55"/>
   <sheetViews>
@@ -5492,37 +5936,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="30" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
       <c r="F1" s="28" t="s">
         <v>462</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="31" t="s">
         <v>444</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30" t="s">
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31" t="s">
         <v>463</v>
       </c>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="32"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -5587,23 +6031,23 @@
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="N14" s="34" t="s">
+      <c r="N14" s="35" t="s">
         <v>428</v>
       </c>
-      <c r="O14" s="35"/>
-      <c r="P14" s="32" t="s">
+      <c r="O14" s="36"/>
+      <c r="P14" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="N15" s="36" t="s">
+      <c r="N15" s="37" t="s">
         <v>435</v>
       </c>
-      <c r="O15" s="37"/>
+      <c r="O15" s="38"/>
       <c r="P15" s="27" t="s">
         <v>432</v>
       </c>
@@ -5650,17 +6094,17 @@
       <c r="H17" t="s">
         <v>413</v>
       </c>
-      <c r="N17" s="36" t="s">
+      <c r="N17" s="37" t="s">
         <v>436</v>
       </c>
-      <c r="O17" s="37"/>
-      <c r="P17" s="33" t="s">
+      <c r="O17" s="38"/>
+      <c r="P17" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
     </row>
     <row r="18" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H18" t="s">
@@ -6223,10 +6667,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K21"/>
+  <dimension ref="A2:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6311,6 +6755,21 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B29" s="39" t="s">
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -6321,6 +6780,65 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>506</v>
+      </c>
+      <c r="B4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
@@ -6514,7 +7032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
@@ -6689,394 +7207,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:V66"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
-    <col min="16" max="16" width="11.109375" customWidth="1"/>
-    <col min="18" max="18" width="16.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>171</v>
-      </c>
-      <c r="K8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="K9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="K10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="K11" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="K12" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="K13" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="K15" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>449</v>
-      </c>
-      <c r="R15" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="K16" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>449</v>
-      </c>
-      <c r="R16" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>175</v>
-      </c>
-      <c r="K19" t="s">
-        <v>176</v>
-      </c>
-      <c r="O19" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O20" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O21" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O22" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O23" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O24" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O25" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O26" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O27" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O29" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O30" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O32" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="O34" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="O35" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="O37" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="O38" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="O39" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="Q41" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="Q42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="Q43" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="Q44" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>251</v>
-      </c>
-      <c r="S47" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>264</v>
-      </c>
-      <c r="R49" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="V49" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>261</v>
-      </c>
-      <c r="R50" s="19" t="s">
-        <v>307</v>
-      </c>
-      <c r="V50" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C62" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="D63" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>298</v>
-      </c>
-      <c r="C64" s="22" t="s">
-        <v>308</v>
-      </c>
-      <c r="D64" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="65" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q65" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="S65" s="22" t="s">
-        <v>308</v>
-      </c>
-      <c r="T65" s="9" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="66" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="Q66" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="S66" s="22" t="s">
-        <v>308</v>
-      </c>
-      <c r="T66" s="19" t="s">
-        <v>307</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/notes/android_nci_notes.xlsx
+++ b/notes/android_nci_notes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5952" windowWidth="23040" windowHeight="8532" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="6324" windowWidth="23040" windowHeight="8532" firstSheet="6" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="tNFC_CB" sheetId="11" r:id="rId1"/>
@@ -24,9 +24,9 @@
     <sheet name="callbacks" sheetId="2" r:id="rId10"/>
     <sheet name="NCI" sheetId="3" r:id="rId11"/>
     <sheet name="MBOX" sheetId="4" r:id="rId12"/>
-    <sheet name="setDefaultRoute" sheetId="8" r:id="rId13"/>
-    <sheet name="GKI" sheetId="12" r:id="rId14"/>
-    <sheet name="CardEmu" sheetId="13" r:id="rId15"/>
+    <sheet name="GKI" sheetId="12" r:id="rId13"/>
+    <sheet name="CardEmu" sheetId="13" r:id="rId14"/>
+    <sheet name="setDefaultRoute" sheetId="8" r:id="rId15"/>
     <sheet name="Routing" sheetId="14" r:id="rId16"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -277,7 +277,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="516">
   <si>
     <t>NativeNfcManager.cpp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2274,6 +2274,18 @@
   <si>
     <t>Me</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFA_EE_API_SET_PROTO_CFG_EVT</t>
+  </si>
+  <si>
+    <t>NFA_EE_API_SET_TECH_CFG_EVT</t>
+  </si>
+  <si>
+    <t>defaultProtoSeID</t>
+  </si>
+  <si>
+    <t>defaultTechSeID</t>
   </si>
 </sst>
 </file>
@@ -2702,6 +2714,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2731,9 +2746,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3603,10 +3615,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
@@ -3621,8 +3633,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6545580" y="3947160"/>
-          <a:ext cx="1874520" cy="1798320"/>
+          <a:off x="6499860" y="3962400"/>
+          <a:ext cx="1920240" cy="1783080"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst/>
@@ -3670,6 +3682,100 @@
         <a:xfrm>
           <a:off x="5417820" y="8016240"/>
           <a:ext cx="472440" cy="350520"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Curved Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="3589020"/>
+          <a:ext cx="1950720" cy="358140"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Curved Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6507480" y="3771900"/>
+          <a:ext cx="1965960" cy="716280"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst/>
@@ -5334,10 +5440,451 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:W49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>423</v>
+      </c>
+      <c r="S2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>336</v>
+      </c>
+      <c r="M3" t="s">
+        <v>337</v>
+      </c>
+      <c r="S3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>338</v>
+      </c>
+      <c r="N4" t="s">
+        <v>418</v>
+      </c>
+      <c r="T4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>339</v>
+      </c>
+      <c r="N5" t="s">
+        <v>341</v>
+      </c>
+      <c r="T5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>342</v>
+      </c>
+      <c r="T6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
+        <v>343</v>
+      </c>
+      <c r="T7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>114</v>
+      </c>
+      <c r="N8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>340</v>
+      </c>
+      <c r="N9" t="s">
+        <v>419</v>
+      </c>
+      <c r="T9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="T11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>424</v>
+      </c>
+      <c r="T12" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>401</v>
+      </c>
+      <c r="T13" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>402</v>
+      </c>
+      <c r="T14" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>356</v>
+      </c>
+      <c r="T16" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+    </row>
+    <row r="17" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>358</v>
+      </c>
+      <c r="T17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="18" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>357</v>
+      </c>
+      <c r="S18" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="20" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="21" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="23" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>361</v>
+      </c>
+      <c r="T23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>362</v>
+      </c>
+      <c r="U24" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="25" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="V25" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="26" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>363</v>
+      </c>
+      <c r="W26" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="27" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="28" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="29" spans="9:23" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J29" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="30" spans="9:23" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J30" t="s">
+        <v>367</v>
+      </c>
+      <c r="R30" s="23" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="31" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>368</v>
+      </c>
+      <c r="R31" s="24"/>
+    </row>
+    <row r="32" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>369</v>
+      </c>
+      <c r="R32" s="24"/>
+    </row>
+    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R33" s="25"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>411</v>
+      </c>
+      <c r="K41" s="26" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>413</v>
+      </c>
+      <c r="M42" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N43" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>414</v>
+      </c>
+      <c r="N45" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E48" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>415</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:P33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>373</v>
+      </c>
+      <c r="M19" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>385</v>
+      </c>
+      <c r="N20" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>386</v>
+      </c>
+      <c r="O21" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>387</v>
+      </c>
+      <c r="P22" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>391</v>
+      </c>
+      <c r="L28" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>390</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5470,453 +6017,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:W49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="L2" t="s">
-        <v>423</v>
-      </c>
-      <c r="S2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>336</v>
-      </c>
-      <c r="M3" t="s">
-        <v>337</v>
-      </c>
-      <c r="S3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>338</v>
-      </c>
-      <c r="N4" t="s">
-        <v>418</v>
-      </c>
-      <c r="T4" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>339</v>
-      </c>
-      <c r="N5" t="s">
-        <v>341</v>
-      </c>
-      <c r="T5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="N6" t="s">
-        <v>342</v>
-      </c>
-      <c r="T6" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="N7" t="s">
-        <v>343</v>
-      </c>
-      <c r="T7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>114</v>
-      </c>
-      <c r="N8" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>340</v>
-      </c>
-      <c r="N9" t="s">
-        <v>419</v>
-      </c>
-      <c r="T9" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="T11" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="G12" t="s">
-        <v>424</v>
-      </c>
-      <c r="T12" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="H13" t="s">
-        <v>401</v>
-      </c>
-      <c r="T13" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="I14" t="s">
-        <v>402</v>
-      </c>
-      <c r="T14" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="J15" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="I16" t="s">
-        <v>356</v>
-      </c>
-      <c r="T16" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-    </row>
-    <row r="17" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I17" t="s">
-        <v>358</v>
-      </c>
-      <c r="T17" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="18" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="J18" t="s">
-        <v>357</v>
-      </c>
-      <c r="S18" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="20" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I20" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="21" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I21" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="23" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I23" t="s">
-        <v>361</v>
-      </c>
-      <c r="T23" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="24" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I24" t="s">
-        <v>362</v>
-      </c>
-      <c r="U24" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="25" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="V25" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="26" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I26" t="s">
-        <v>363</v>
-      </c>
-      <c r="W26" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="27" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="J27" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="28" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="J28" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="29" spans="9:23" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J29" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="30" spans="9:23" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J30" t="s">
-        <v>367</v>
-      </c>
-      <c r="R30" s="23" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="31" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I31" t="s">
-        <v>368</v>
-      </c>
-      <c r="R31" s="24"/>
-    </row>
-    <row r="32" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="J32" t="s">
-        <v>369</v>
-      </c>
-      <c r="R32" s="24"/>
-    </row>
-    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R33" s="25"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>411</v>
-      </c>
-      <c r="K41" s="26" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>413</v>
-      </c>
-      <c r="M42" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N43" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M44" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
-        <v>414</v>
-      </c>
-      <c r="N45" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E47" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E48" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
-        <v>415</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>373</v>
-      </c>
-      <c r="M19" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>385</v>
-      </c>
-      <c r="N20" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>386</v>
-      </c>
-      <c r="O21" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>387</v>
-      </c>
-      <c r="P22" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>391</v>
-      </c>
-      <c r="L28" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
-        <v>390</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5936,37 +6042,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
       <c r="F1" s="28" t="s">
         <v>462</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="32" t="s">
         <v>444</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31" t="s">
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32" t="s">
         <v>463</v>
       </c>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="33"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -6031,23 +6137,23 @@
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="N14" s="35" t="s">
+      <c r="N14" s="36" t="s">
         <v>428</v>
       </c>
-      <c r="O14" s="36"/>
-      <c r="P14" s="33" t="s">
+      <c r="O14" s="37"/>
+      <c r="P14" s="34" t="s">
         <v>429</v>
       </c>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="N15" s="37" t="s">
+      <c r="N15" s="38" t="s">
         <v>435</v>
       </c>
-      <c r="O15" s="38"/>
+      <c r="O15" s="39"/>
       <c r="P15" s="27" t="s">
         <v>432</v>
       </c>
@@ -6094,17 +6200,17 @@
       <c r="H17" t="s">
         <v>413</v>
       </c>
-      <c r="N17" s="37" t="s">
+      <c r="N17" s="38" t="s">
         <v>436</v>
       </c>
-      <c r="O17" s="38"/>
-      <c r="P17" s="34" t="s">
+      <c r="O17" s="39"/>
+      <c r="P17" s="35" t="s">
         <v>437</v>
       </c>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
     </row>
     <row r="18" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H18" t="s">
@@ -6125,19 +6231,33 @@
       <c r="H21" t="s">
         <v>446</v>
       </c>
+      <c r="M21" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="22" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H22" t="s">
         <v>376</v>
       </c>
+      <c r="O22" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="23" spans="8:20" x14ac:dyDescent="0.25">
-      <c r="O23" t="s">
+      <c r="M23" t="s">
+        <v>515</v>
+      </c>
+      <c r="P23" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="25" spans="8:20" x14ac:dyDescent="0.25">
       <c r="O25" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="26" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="P26" t="s">
         <v>467</v>
       </c>
     </row>
@@ -6317,10 +6437,10 @@
       <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="29"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -6768,7 +6888,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="29" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6783,7 +6903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/notes/android_nci_notes.xlsx
+++ b/notes/android_nci_notes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6324" windowWidth="23040" windowHeight="8532" firstSheet="6" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="6696" windowWidth="23040" windowHeight="8532" firstSheet="7" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="tNFC_CB" sheetId="11" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="CardEmu" sheetId="13" r:id="rId14"/>
     <sheet name="setDefaultRoute" sheetId="8" r:id="rId15"/>
     <sheet name="Routing" sheetId="14" r:id="rId16"/>
+    <sheet name="Sheet1" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -277,7 +278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="529">
   <si>
     <t>NativeNfcManager.cpp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2286,6 +2287,58 @@
   </si>
   <si>
     <t>defaultTechSeID</t>
+  </si>
+  <si>
+    <t>NFC FW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disable svdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>End of Wired mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVDD_SYNC_ON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI Session End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFCFW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable SVDD_SYNC_ON flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guard time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVDD ON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI Session Start after guard time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>down_timeout(…)??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6021,7 +6074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
@@ -6411,6 +6464,87 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>521</v>
+      </c>
+      <c r="C6" t="s">
+        <v>520</v>
+      </c>
+      <c r="D6" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>523</v>
+      </c>
+      <c r="C7" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>525</v>
+      </c>
+      <c r="D8" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>528</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
